--- a/biology/Zoologie/Daclera/Daclera.xlsx
+++ b/biology/Zoologie/Daclera/Daclera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daclera est un genre d'Heteroptera ou punaises de la super-famille des Coreoidea, dans la famille des Alydidae ou punaises de courlis et de la sous-famille des Alydinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Daclera est décrit par l'entomologiste français Victor Antoine Signoret (1816-1889) en 1863.
 </t>
@@ -542,15 +556,52 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre comprend les espèces suivantes[1],[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre comprend les espèces suivantes, :
 Daclera levana Distant, 1918
 Daclera opaca Blöte, 1934
 Daclera punctata Signoret, 1863
-Daclera rufescens Stål, 1873 espèce-type selon IRMNG[3]
-Espèces fossiles
-†Daclera naturalis Théobald, 1937[4]</t>
+Daclera rufescens Stål, 1873 espèce-type selon IRMNG
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daclera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daclera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Daclera naturalis Théobald, 1937</t>
         </is>
       </c>
     </row>
